--- a/sheme.xlsx
+++ b/sheme.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\C#\THelper2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\C#\THelper2\THelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7281,16 +7281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>455839</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257051</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>272760</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>171999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7303,13 +7303,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="306" idx="2"/>
-          <a:endCxn id="232" idx="0"/>
+          <a:endCxn id="37" idx="7"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5204732" y="20764500"/>
-          <a:ext cx="1041564" cy="2013856"/>
+          <a:off x="4393622" y="20764500"/>
+          <a:ext cx="1852674" cy="933999"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7320,13 +7320,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -10271,13 +10271,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -10686,7 +10686,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z102" sqref="Z102"/>
+      <selection activeCell="AA110" sqref="AA110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sheme.xlsx
+++ b/sheme.xlsx
@@ -7281,72 +7281,72 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257051</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>272760</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>171999</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="320" name="Прямая со стрелкой 319">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040010000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="306" idx="2"/>
-          <a:endCxn id="37" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4393622" y="20764500"/>
-          <a:ext cx="1852674" cy="933999"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>272760</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>478972</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="320" name="Прямая со стрелкой 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="306" idx="2"/>
+          <a:endCxn id="128" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6246296" y="20764500"/>
+          <a:ext cx="206212" cy="655864"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>272760</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7365,7 +7365,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6246296" y="20764500"/>
-          <a:ext cx="638918" cy="884465"/>
+          <a:ext cx="2611954" cy="530679"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7673,16 +7673,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>217712</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>544285</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7697,7 +7697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7415891" y="24370392"/>
+          <a:off x="8885463" y="23254606"/>
           <a:ext cx="1551215" cy="693965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7741,10 +7741,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -7768,8 +7768,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191499" y="25064357"/>
-          <a:ext cx="1841295" cy="2136323"/>
+          <a:off x="9661071" y="23948571"/>
+          <a:ext cx="371723" cy="3252109"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7799,12 +7799,12 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>163284</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>152</xdr:row>
       <xdr:rowOff>145967</xdr:rowOff>
     </xdr:to>
@@ -7824,8 +7824,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7361463" y="25064357"/>
-          <a:ext cx="830036" cy="4037610"/>
+          <a:off x="7361463" y="23948571"/>
+          <a:ext cx="2299608" cy="5153396"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9287,16 +9287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>489856</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9311,7 +9311,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6082393" y="21648965"/>
+          <a:off x="8055429" y="21295179"/>
           <a:ext cx="1605642" cy="830035"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -9353,16 +9353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9380,8 +9380,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6885214" y="22479000"/>
-          <a:ext cx="1306285" cy="1891392"/>
+          <a:off x="8858250" y="22125214"/>
+          <a:ext cx="802821" cy="1129392"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10215,13 +10215,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -10261,6 +10261,192 @@
         <a:xfrm>
           <a:off x="4393622" y="22266179"/>
           <a:ext cx="811110" cy="512177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2721</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Oval 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A227318-739B-491C-9886-6228F34D44EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5704115" y="21420364"/>
+          <a:ext cx="1496785" cy="802822"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Has Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> project</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455839</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>7615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>562100</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E919957-7E96-48F4-948E-43E9B1176360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="128" idx="3"/>
+          <a:endCxn id="232" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5204732" y="22105615"/>
+          <a:ext cx="718582" cy="672741"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395844</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>7615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385330</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA16DFE8-EF08-4B58-92C3-E81999C8C921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="128" idx="5"/>
+          <a:endCxn id="284" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981701" y="22105615"/>
+          <a:ext cx="3051093" cy="5095065"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10685,8 +10871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA110" sqref="AA110"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z129" sqref="Z129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sheme.xlsx
+++ b/sheme.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\C#\THelper2\THelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5139D0-12C7-4254-A5AD-29027ED98B2E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5091,15 +5092,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100693</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>140154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5115,7 +5116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5538107" y="3959679"/>
+          <a:off x="3184071" y="4150179"/>
           <a:ext cx="1760765" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -5155,16 +5156,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>444954</xdr:colOff>
+      <xdr:colOff>471487</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5177,13 +5178,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="67" idx="0"/>
+          <a:endCxn id="21" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6418490" y="3605893"/>
-          <a:ext cx="26533" cy="353786"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3850822" y="3156858"/>
+          <a:ext cx="2594201" cy="449035"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5211,14 +5212,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>540204</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>441552</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140154</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444954</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>107497</xdr:rowOff>
     </xdr:to>
@@ -5237,9 +5238,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6415088" y="4521654"/>
-          <a:ext cx="3402" cy="348343"/>
+        <a:xfrm>
+          <a:off x="4064454" y="4712154"/>
+          <a:ext cx="2350634" cy="157843"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10464,6 +10465,130 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D995C63A-FD29-4CB9-93AC-DF04987D106F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3156858"/>
+          <a:ext cx="1605643" cy="585107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Check unexpected</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> files</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>540204</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56AC89F-5D91-40F8-A0EC-A28D8486A702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3850822" y="3741965"/>
+          <a:ext cx="213632" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -10871,8 +10996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z129" sqref="Z129"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sheme.xlsx
+++ b/sheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\C#\THelper2\THelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5139D0-12C7-4254-A5AD-29027ED98B2E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EA2EA6-D8CF-49C7-96D4-6431277A7B92}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
